--- a/ApolloQA/Data/RatingManual/GA/VA00067.DeductibleFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00067.DeductibleFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00067.DeductibleFactors" sheetId="1" r:id="Rb559a6315cfd4c9a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00067.DeductibleFactors" sheetId="1" r:id="Ra34d02213e4b473e"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,58 +12,146 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Deductible</x:v>
+        <x:v>Class Code</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Deductible Factor</x:v>
+        <x:v>Class Code Factor</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>$250</x:v>
+        <x:v>803</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.2000</x:v>
+        <x:v>2.3830</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>$500</x:v>
+        <x:v>810</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.1000</x:v>
+        <x:v>0.9989</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>$1,000</x:v>
+        <x:v>813</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0000</x:v>
+        <x:v>0.9974</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>$2,500</x:v>
+        <x:v>814</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0000</x:v>
+        <x:v>1.0928</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>$5,000</x:v>
+        <x:v>815</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0000</x:v>
+        <x:v>0.8735</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>$10,000</x:v>
+        <x:v>825</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0000</x:v>
+        <x:v>1.1465</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>839</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0762</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>844</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8259</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>845</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9137</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>846</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>853</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.2839</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>857</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9776</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>858</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9789</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>860</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1864</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>861</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9634</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>862</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9899</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>863</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9410</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
